--- a/hosing/ppfails.xlsx
+++ b/hosing/ppfails.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/projects_current/CODEXParsons/hosing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4DC9A092-4944-CC41-88E5-E3729C2E5939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6345ADF1-CE9F-2148-B8BD-C6921D3FFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="-25740" windowWidth="31800" windowHeight="23600"/>
+    <workbookView xWindow="-3260" yWindow="-25800" windowWidth="17320" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pivot" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="ppfails.json" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -573,9 +573,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -640,7 +639,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Brent Reeves" refreshedDate="44930.531354513892" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="36">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Brent Reeves" refreshedDate="44931.524304513892" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="36" xr:uid="{25EBE041-E139-2F41-AF42-F956A67776B3}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C37" sheet="ppfails.json"/>
   </cacheSource>
@@ -669,8 +668,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="fails" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="16" count="13">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20" count="14">
         <n v="0"/>
+        <n v="20"/>
         <n v="2"/>
         <n v="1"/>
         <n v="4"/>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="36">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -704,7 +704,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -714,32 +714,32 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="7"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
     <x v="8"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
@@ -749,117 +749,117 @@
   <r>
     <x v="0"/>
     <x v="10"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="0"/>
     <x v="11"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="1"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
     <x v="7"/>
-    <x v="9"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="1"/>
     <x v="8"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="1"/>
     <x v="9"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="1"/>
     <x v="10"/>
-    <x v="10"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="1"/>
     <x v="11"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <x v="11"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
-    <x v="11"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
-    <x v="11"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="2"/>
     <x v="6"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="2"/>
     <x v="7"/>
-    <x v="12"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="2"/>
     <x v="8"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="2"/>
@@ -869,18 +869,18 @@
   <r>
     <x v="2"/>
     <x v="10"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
     <x v="11"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9A79CE8-38E4-6643-85C6-56465247EC63}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -909,20 +909,21 @@
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0">
-      <items count="14">
+      <items count="15">
         <item x="0"/>
+        <item x="3"/>
         <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="13"/>
         <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1299,30 +1300,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8217A4CC-5653-784C-839F-6256D72ABBE7}">
   <dimension ref="A3:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -1339,224 +1341,224 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="E8" s="3">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4">
-        <v>81</v>
-      </c>
-      <c r="D17" s="4">
-        <v>68</v>
-      </c>
-      <c r="E17" s="4">
-        <v>172</v>
+      <c r="B17" s="3">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3">
+        <v>93</v>
+      </c>
+      <c r="D17" s="3">
+        <v>85</v>
+      </c>
+      <c r="E17" s="3">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1565,11 +1567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:C37"/>
+      <selection activeCell="B2" sqref="A1:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1582,7 @@
     <col min="6" max="6" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1610,10 +1612,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1657,20 +1659,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1744,10 +1744,10 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
